--- a/data/output/FV2304_FV2210/UTILMD/11078.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11078.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10434" uniqueCount="627">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10455" uniqueCount="627">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2004,6 +2004,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U463" totalsRowShown="0">
+  <autoFilter ref="A1:U463"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2293,7 +2323,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -24101,5 +24134,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11078.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11078.xlsx
@@ -3768,7 +3768,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4236,7 +4236,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4426,7 +4426,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -4830,7 +4830,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -5450,7 +5450,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -5798,7 +5798,7 @@
         <v>593</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6202,7 +6202,7 @@
         <v>594</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6406,7 +6406,7 @@
         <v>595</v>
       </c>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -6560,7 +6560,7 @@
         <v>596</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -6714,7 +6714,7 @@
         <v>597</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -6916,7 +6916,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="K68" s="2"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -7216,7 +7216,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -7364,7 +7364,7 @@
         <v>599</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -7518,7 +7518,7 @@
         <v>601</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -7774,7 +7774,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -7872,7 +7872,7 @@
         <v>602</v>
       </c>
       <c r="L84" s="4"/>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N84" s="2" t="s">
@@ -8024,7 +8024,7 @@
       </c>
       <c r="K87" s="2"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N87" s="2" t="s">
@@ -8452,7 +8452,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -8656,7 +8656,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -9048,7 +9048,7 @@
       </c>
       <c r="K107" s="2"/>
       <c r="L107" s="4"/>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N107" s="2" t="s">
@@ -9302,7 +9302,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -9594,7 +9594,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="K126" s="2"/>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -10338,7 +10338,7 @@
         <v>607</v>
       </c>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -10794,7 +10794,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -10998,7 +10998,7 @@
       </c>
       <c r="K146" s="2"/>
       <c r="L146" s="4"/>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N146" s="2" t="s">
@@ -11150,7 +11150,7 @@
         <v>609</v>
       </c>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -11356,7 +11356,7 @@
       </c>
       <c r="K153" s="2"/>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -11764,7 +11764,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -12430,7 +12430,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -12684,7 +12684,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -12942,7 +12942,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -13038,7 +13038,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -13188,7 +13188,7 @@
       </c>
       <c r="K189" s="2"/>
       <c r="L189" s="4"/>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N189" s="2" t="s">
@@ -13392,7 +13392,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -13842,7 +13842,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -14196,7 +14196,7 @@
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="4"/>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N209" s="2" t="s">
@@ -14400,7 +14400,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -14498,7 +14498,7 @@
         <v>611</v>
       </c>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -14650,7 +14650,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -14854,7 +14854,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -15000,7 +15000,7 @@
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -15246,7 +15246,7 @@
       </c>
       <c r="K230" s="2"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N230" s="2" t="s">
@@ -15450,7 +15450,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -15546,7 +15546,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -15696,7 +15696,7 @@
       </c>
       <c r="K239" s="2"/>
       <c r="L239" s="4"/>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N239" s="2" t="s">
@@ -15900,7 +15900,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N245" s="2" t="s">
@@ -16146,7 +16146,7 @@
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="4"/>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N248" s="2" t="s">
@@ -16242,7 +16242,7 @@
       </c>
       <c r="K250" s="2"/>
       <c r="L250" s="4"/>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N250" s="2" t="s">
@@ -16394,7 +16394,7 @@
         <v>615</v>
       </c>
       <c r="L253" s="4"/>
-      <c r="M253" s="2" t="s">
+      <c r="M253" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N253" s="2" t="s">
@@ -16542,7 +16542,7 @@
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="4"/>
-      <c r="M256" s="2" t="s">
+      <c r="M256" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N256" s="2" t="s">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="4"/>
-      <c r="M258" s="2" t="s">
+      <c r="M258" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N258" s="2" t="s">
@@ -16892,7 +16892,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -17038,7 +17038,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -17392,7 +17392,7 @@
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="4"/>
-      <c r="M273" s="2" t="s">
+      <c r="M273" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N273" s="2" t="s">
@@ -17488,7 +17488,7 @@
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="4"/>
-      <c r="M275" s="2" t="s">
+      <c r="M275" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N275" s="2" t="s">
@@ -17640,7 +17640,7 @@
         <v>616</v>
       </c>
       <c r="L278" s="4"/>
-      <c r="M278" s="2" t="s">
+      <c r="M278" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N278" s="2" t="s">
@@ -17788,7 +17788,7 @@
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="4"/>
-      <c r="M281" s="2" t="s">
+      <c r="M281" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N281" s="2" t="s">
@@ -18578,7 +18578,7 @@
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="4"/>
-      <c r="M296" s="2" t="s">
+      <c r="M296" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N296" s="2" t="s">
@@ -18726,7 +18726,7 @@
         <v>618</v>
       </c>
       <c r="L299" s="4"/>
-      <c r="M299" s="2" t="s">
+      <c r="M299" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N299" s="2" t="s">
@@ -18932,7 +18932,7 @@
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -19082,7 +19082,7 @@
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="4"/>
-      <c r="M310" s="2" t="s">
+      <c r="M310" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N310" s="2" t="s">
@@ -19532,7 +19532,7 @@
       </c>
       <c r="K315" s="2"/>
       <c r="L315" s="4"/>
-      <c r="M315" s="2" t="s">
+      <c r="M315" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N315" s="2" t="s">
@@ -19630,7 +19630,7 @@
         <v>619</v>
       </c>
       <c r="L317" s="4"/>
-      <c r="M317" s="2" t="s">
+      <c r="M317" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N317" s="2" t="s">
@@ -19836,7 +19836,7 @@
       </c>
       <c r="K321" s="2"/>
       <c r="L321" s="4"/>
-      <c r="M321" s="2" t="s">
+      <c r="M321" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N321" s="2" t="s">
@@ -19988,7 +19988,7 @@
         <v>621</v>
       </c>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -20136,7 +20136,7 @@
       </c>
       <c r="K327" s="2"/>
       <c r="L327" s="4"/>
-      <c r="M327" s="2" t="s">
+      <c r="M327" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N327" s="2" t="s">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="K331" s="2"/>
       <c r="L331" s="4"/>
-      <c r="M331" s="2" t="s">
+      <c r="M331" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N331" s="2" t="s">
@@ -20694,7 +20694,7 @@
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -20986,7 +20986,7 @@
       </c>
       <c r="K344" s="2"/>
       <c r="L344" s="4"/>
-      <c r="M344" s="2" t="s">
+      <c r="M344" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N344" s="2" t="s">
@@ -21132,7 +21132,7 @@
       </c>
       <c r="K347" s="2"/>
       <c r="L347" s="4"/>
-      <c r="M347" s="2" t="s">
+      <c r="M347" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N347" s="2" t="s">
@@ -21228,7 +21228,7 @@
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="4"/>
-      <c r="M349" s="2" t="s">
+      <c r="M349" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N349" s="2" t="s">
@@ -21374,7 +21374,7 @@
       </c>
       <c r="K352" s="2"/>
       <c r="L352" s="4"/>
-      <c r="M352" s="2" t="s">
+      <c r="M352" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N352" s="2" t="s">
@@ -21472,7 +21472,7 @@
         <v>623</v>
       </c>
       <c r="L354" s="4"/>
-      <c r="M354" s="2" t="s">
+      <c r="M354" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N354" s="2" t="s">
@@ -21620,7 +21620,7 @@
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="4"/>
-      <c r="M357" s="2" t="s">
+      <c r="M357" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N357" s="2" t="s">
@@ -21932,7 +21932,7 @@
       </c>
       <c r="K363" s="2"/>
       <c r="L363" s="4"/>
-      <c r="M363" s="2" t="s">
+      <c r="M363" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N363" s="2" t="s">
@@ -22028,7 +22028,7 @@
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="4"/>
-      <c r="M365" s="2" t="s">
+      <c r="M365" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N365" s="2" t="s">
@@ -22174,7 +22174,7 @@
       </c>
       <c r="K368" s="2"/>
       <c r="L368" s="4"/>
-      <c r="M368" s="2" t="s">
+      <c r="M368" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N368" s="2" t="s">
@@ -22270,7 +22270,7 @@
       </c>
       <c r="K370" s="2"/>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -22416,7 +22416,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -22782,7 +22782,7 @@
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="4"/>
-      <c r="M380" s="2" t="s">
+      <c r="M380" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N380" s="2" t="s">
@@ -22878,7 +22878,7 @@
       </c>
       <c r="K382" s="2"/>
       <c r="L382" s="4"/>
-      <c r="M382" s="2" t="s">
+      <c r="M382" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N382" s="2" t="s">
@@ -23024,7 +23024,7 @@
       </c>
       <c r="K385" s="2"/>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -23120,7 +23120,7 @@
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="4"/>
-      <c r="M387" s="2" t="s">
+      <c r="M387" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N387" s="2" t="s">
@@ -23266,7 +23266,7 @@
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="4"/>
-      <c r="M390" s="2" t="s">
+      <c r="M390" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N390" s="2" t="s">
@@ -23416,7 +23416,7 @@
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="4"/>
-      <c r="M393" s="2" t="s">
+      <c r="M393" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N393" s="2" t="s">
@@ -23608,7 +23608,7 @@
       </c>
       <c r="K397" s="2"/>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -23758,7 +23758,7 @@
       </c>
       <c r="K400" s="2"/>
       <c r="L400" s="4"/>
-      <c r="M400" s="2" t="s">
+      <c r="M400" s="3" t="s">
         <v>110</v>
       </c>
       <c r="N400" s="2" t="s">
@@ -23854,7 +23854,7 @@
       </c>
       <c r="K402" s="2"/>
       <c r="L402" s="4"/>
-      <c r="M402" s="2" t="s">
+      <c r="M402" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N402" s="2" t="s">
@@ -24000,7 +24000,7 @@
       </c>
       <c r="K405" s="2"/>
       <c r="L405" s="4"/>
-      <c r="M405" s="2" t="s">
+      <c r="M405" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N405" s="2" t="s">
@@ -24150,7 +24150,7 @@
       </c>
       <c r="K408" s="2"/>
       <c r="L408" s="4"/>
-      <c r="M408" s="2" t="s">
+      <c r="M408" s="3" t="s">
         <v>111</v>
       </c>
       <c r="N408" s="2" t="s">
@@ -24246,7 +24246,7 @@
       </c>
       <c r="K410" s="2"/>
       <c r="L410" s="4"/>
-      <c r="M410" s="2" t="s">
+      <c r="M410" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N410" s="2" t="s">
@@ -24396,7 +24396,7 @@
       </c>
       <c r="K413" s="2"/>
       <c r="L413" s="4"/>
-      <c r="M413" s="2" t="s">
+      <c r="M413" s="3" t="s">
         <v>112</v>
       </c>
       <c r="N413" s="2" t="s">
@@ -24492,7 +24492,7 @@
       </c>
       <c r="K415" s="2"/>
       <c r="L415" s="4"/>
-      <c r="M415" s="2" t="s">
+      <c r="M415" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N415" s="2" t="s">
@@ -24642,7 +24642,7 @@
       </c>
       <c r="K418" s="2"/>
       <c r="L418" s="4"/>
-      <c r="M418" s="2" t="s">
+      <c r="M418" s="3" t="s">
         <v>113</v>
       </c>
       <c r="N418" s="2" t="s">
@@ -24884,7 +24884,7 @@
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="4"/>
-      <c r="M423" s="2" t="s">
+      <c r="M423" s="3" t="s">
         <v>114</v>
       </c>
       <c r="N423" s="2" t="s">
@@ -24980,7 +24980,7 @@
       </c>
       <c r="K425" s="2"/>
       <c r="L425" s="4"/>
-      <c r="M425" s="2" t="s">
+      <c r="M425" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N425" s="2" t="s">
@@ -25130,7 +25130,7 @@
       </c>
       <c r="K428" s="2"/>
       <c r="L428" s="4"/>
-      <c r="M428" s="2" t="s">
+      <c r="M428" s="3" t="s">
         <v>115</v>
       </c>
       <c r="N428" s="2" t="s">
@@ -25318,7 +25318,7 @@
       </c>
       <c r="K432" s="2"/>
       <c r="L432" s="4"/>
-      <c r="M432" s="2" t="s">
+      <c r="M432" s="3" t="s">
         <v>116</v>
       </c>
       <c r="N432" s="2" t="s">
@@ -25614,7 +25614,7 @@
       </c>
       <c r="K438" s="2"/>
       <c r="L438" s="4"/>
-      <c r="M438" s="2" t="s">
+      <c r="M438" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N438" s="2" t="s">
@@ -25976,7 +25976,7 @@
       </c>
       <c r="K445" s="2"/>
       <c r="L445" s="4"/>
-      <c r="M445" s="2" t="s">
+      <c r="M445" s="3" t="s">
         <v>118</v>
       </c>
       <c r="N445" s="2" t="s">
@@ -26072,7 +26072,7 @@
       </c>
       <c r="K447" s="2"/>
       <c r="L447" s="4"/>
-      <c r="M447" s="2" t="s">
+      <c r="M447" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N447" s="2" t="s">
@@ -26222,7 +26222,7 @@
       </c>
       <c r="K450" s="2"/>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>119</v>
       </c>
       <c r="N450" s="2" t="s">
@@ -26410,7 +26410,7 @@
       </c>
       <c r="K454" s="2"/>
       <c r="L454" s="4"/>
-      <c r="M454" s="2" t="s">
+      <c r="M454" s="3" t="s">
         <v>120</v>
       </c>
       <c r="N454" s="2" t="s">
@@ -26758,7 +26758,7 @@
       </c>
       <c r="K461" s="2"/>
       <c r="L461" s="4"/>
-      <c r="M461" s="2" t="s">
+      <c r="M461" s="3" t="s">
         <v>121</v>
       </c>
       <c r="N461" s="2"/>
